--- a/data/trans_bre/iP16_n_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/iP16_n_R2-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 25,45</t>
+          <t>-21,76; 26,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 28,93</t>
+          <t>-5,63; 29,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-42,58; 3,82</t>
+          <t>-45,56; 3,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-44,98; 13,96</t>
+          <t>-46,07; 11,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,77; 155,41</t>
+          <t>-52,04; 145,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,84; —</t>
+          <t>-47,55; 788,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-88,71; 84,87</t>
+          <t>-91,33; 61,89</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 13,66</t>
+          <t>-12,03; 12,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 14,14</t>
+          <t>-4,47; 13,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 6,32</t>
+          <t>-9,46; 6,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,61; 8,44</t>
+          <t>-15,01; 7,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-24,93; 35,83</t>
+          <t>-24,47; 33,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,27; 140,07</t>
+          <t>-25,59; 136,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-51,34; 61,88</t>
+          <t>-49,33; 66,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-38,51; 27,88</t>
+          <t>-37,22; 26,52</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,97; 7,93</t>
+          <t>-30,56; 9,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,94; 12,55</t>
+          <t>-13,9; 11,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 20,22</t>
+          <t>-8,57; 20,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 27,79</t>
+          <t>-8,51; 27,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-63,3; 29,42</t>
+          <t>-62,81; 31,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-66,17; 193,95</t>
+          <t>-68,98; 174,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-58,29; 841,87</t>
+          <t>-69,85; 647,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,56; 137,28</t>
+          <t>-21,3; 138,57</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 7,01</t>
+          <t>-10,37; 7,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 10,98</t>
+          <t>-2,78; 11,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 5,07</t>
+          <t>-8,22; 5,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 8,71</t>
+          <t>-10,28; 8,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-24,36; 20,62</t>
+          <t>-23,9; 22,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 101,13</t>
+          <t>-17,9; 112,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-47,85; 47,8</t>
+          <t>-46,97; 52,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-28,39; 28,94</t>
+          <t>-27,07; 27,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/iP16_n_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/iP16_n_R2-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>11,89</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-12,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-19,95</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>118,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,3%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-21,66; 26,26</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-4,23; 29,63</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-41,25; 3,66</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-51,12; 8,25</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-51,22; 159,7</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-40,8; 956,98</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,49; 46,38</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,89</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-12,36</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-18,0</t>
+          <t>-8,17</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>118,69%</t>
+          <t>31,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-77,46%</t>
+          <t>-10,75%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-47,87%</t>
+          <t>-23,47%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,76; 26,05</t>
+          <t>-12,56; 12,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 29,04</t>
+          <t>-4,81; 13,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,56; 3,47</t>
+          <t>-9,55; 7,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-46,07; 11,93</t>
+          <t>-29,14; 2,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,04; 145,81</t>
+          <t>-26,25; 34,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,55; 788,78</t>
+          <t>-28,73; 129,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,13; 71,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-91,33; 61,89</t>
+          <t>-68,97; 8,22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>-11,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>8,89</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>-29,54%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>-6,56%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-10,75%</t>
+          <t>60,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-8,93%</t>
+          <t>29,62%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,03; 12,59</t>
+          <t>-29,1; 8,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 13,66</t>
+          <t>-15,02; 11,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 6,99</t>
+          <t>-7,86; 19,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,01; 7,97</t>
+          <t>-7,87; 27,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-24,47; 33,21</t>
+          <t>-64,2; 28,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,59; 136,92</t>
+          <t>-66,64; 169,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-49,33; 66,84</t>
+          <t>-67,86; 565,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-37,22; 26,52</t>
+          <t>-20,59; 132,54</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-11,81</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,51</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,49</t>
+          <t>-5,08</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-29,54%</t>
+          <t>-4,34%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,56%</t>
+          <t>30,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>60,25%</t>
+          <t>-9,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>31,49%</t>
+          <t>-15,13%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,56; 9,5</t>
+          <t>-11,31; 7,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,9; 11,15</t>
+          <t>-3,18; 10,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 20,04</t>
+          <t>-8,63; 5,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 27,32</t>
+          <t>-21,37; 3,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-62,81; 31,07</t>
+          <t>-25,69; 21,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,98; 174,28</t>
+          <t>-18,56; 101,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-69,85; 647,72</t>
+          <t>-50,61; 55,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 138,57</t>
+          <t>-54,54; 12,26</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,53</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,15</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,24</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,99</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-3,85%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>30,1%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-9,02%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-2,89%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-10,37; 7,78</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,78; 11,43</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-8,22; 5,28</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-10,28; 8,37</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-23,9; 22,25</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-17,9; 112,92</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-46,97; 52,31</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-27,07; 27,21</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
